--- a/schedule/ZiyangXia.xlsx
+++ b/schedule/ZiyangXia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyangxia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A551CED-0CDA-8D46-864B-4A89C6F1DBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530C72A-BEC7-6747-8A64-D7D5EBE64F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:CE73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,9 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
@@ -1495,7 +1497,9 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="11"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
@@ -1703,7 +1707,9 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="11"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
